--- a/output.xlsx
+++ b/output.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="300" yWindow="1590" windowWidth="13830" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="645" yWindow="1800" windowWidth="13830" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -457,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -683,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -883,7 +884,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1173,14 +1174,14 @@
     <row r="22"/>
     <row r="23">
       <c r="A23" s="12" t="n">
-        <v>45124.73014461131</v>
+        <v>45124.91415618231</v>
       </c>
       <c r="B23" t="n">
         <v>-250</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>Withdrawal</t>
         </is>
       </c>
     </row>
@@ -1188,4 +1189,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Anne Proust</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IBAN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RON12KRO03959105014</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>44849</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>2425</v>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Allowance</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>-230</v>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>